--- a/氣象性能評估工具V2/data/obs/2016-06-30_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-30_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="215">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>20.9</t>
+  </si>
+  <si>
     <t>2016-06-30-00</t>
   </si>
   <si>
-    <t>20.9</t>
-  </si>
-  <si>
     <t>24.7</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>27.6</t>
   </si>
   <si>
+    <t>19.1</t>
+  </si>
+  <si>
     <t>2016-06-30-01</t>
   </si>
   <si>
-    <t>19.1</t>
-  </si>
-  <si>
     <t>25.0</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>27.9</t>
   </si>
   <si>
+    <t>20.2</t>
+  </si>
+  <si>
     <t>2016-06-30-02</t>
   </si>
   <si>
-    <t>20.2</t>
-  </si>
-  <si>
     <t>25.1</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>27.7</t>
   </si>
   <si>
+    <t>22.2</t>
+  </si>
+  <si>
     <t>2016-06-30-03</t>
   </si>
   <si>
-    <t>22.2</t>
-  </si>
-  <si>
     <t>24.8</t>
   </si>
   <si>
@@ -283,12 +283,12 @@
     <t>28.5</t>
   </si>
   <si>
+    <t>22.5</t>
+  </si>
+  <si>
     <t>2016-06-30-04</t>
   </si>
   <si>
-    <t>22.5</t>
-  </si>
-  <si>
     <t>22.0</t>
   </si>
   <si>
@@ -322,12 +322,12 @@
     <t>29.0</t>
   </si>
   <si>
+    <t>22.1</t>
+  </si>
+  <si>
     <t>2016-06-30-06</t>
   </si>
   <si>
-    <t>22.1</t>
-  </si>
-  <si>
     <t>23.5</t>
   </si>
   <si>
@@ -346,12 +346,12 @@
     <t>30.0</t>
   </si>
   <si>
+    <t>23.4</t>
+  </si>
+  <si>
     <t>2016-06-30-07</t>
   </si>
   <si>
-    <t>23.4</t>
-  </si>
-  <si>
     <t>26.5</t>
   </si>
   <si>
@@ -577,36 +577,36 @@
     <t>8.5</t>
   </si>
   <si>
+    <t>24.1</t>
+  </si>
+  <si>
     <t>2016-06-30-16</t>
   </si>
   <si>
-    <t>24.1</t>
-  </si>
-  <si>
     <t>30.2</t>
   </si>
   <si>
     <t>23.3</t>
   </si>
   <si>
+    <t>23.8</t>
+  </si>
+  <si>
     <t>2016-06-30-17</t>
   </si>
   <si>
-    <t>23.8</t>
-  </si>
-  <si>
     <t>15.1</t>
   </si>
   <si>
     <t>6.2</t>
   </si>
   <si>
+    <t>22.7</t>
+  </si>
+  <si>
     <t>2016-06-30-18</t>
   </si>
   <si>
-    <t>22.7</t>
-  </si>
-  <si>
     <t>29.2</t>
   </si>
   <si>
@@ -622,12 +622,12 @@
     <t>5.5</t>
   </si>
   <si>
+    <t>21.5</t>
+  </si>
+  <si>
     <t>2016-06-30-20</t>
   </si>
   <si>
-    <t>21.5</t>
-  </si>
-  <si>
     <t>2016-06-30-21</t>
   </si>
   <si>
@@ -649,10 +649,10 @@
     <t>28.0</t>
   </si>
   <si>
+    <t>21.3</t>
+  </si>
+  <si>
     <t>2016-06-30-23</t>
-  </si>
-  <si>
-    <t>21.3</t>
   </si>
   <si>
     <t>12.6</t>
@@ -665,6 +665,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -694,8 +697,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,11 +1078,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1151,11 +1155,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -1228,11 +1232,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -1305,11 +1309,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -1382,11 +1386,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -1459,7 +1463,7 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B7" t="s">
@@ -1536,11 +1540,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
         <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -1613,11 +1617,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
         <v>110</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -1656,7 +1660,7 @@
         <v>43</v>
       </c>
       <c r="O9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P9" t="s">
         <v>117</v>
@@ -1690,7 +1694,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B10" t="s">
@@ -1767,7 +1771,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B11" t="s">
@@ -1844,7 +1848,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B12" t="s">
@@ -1921,7 +1925,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B13" t="s">
@@ -1998,7 +2002,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B14" t="s">
@@ -2075,7 +2079,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B15" t="s">
@@ -2152,7 +2156,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B16" t="s">
@@ -2229,7 +2233,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B17" t="s">
@@ -2306,11 +2310,11 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" t="s">
         <v>187</v>
-      </c>
-      <c r="B18" t="s">
-        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>189</v>
@@ -2383,11 +2387,11 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" t="s">
         <v>191</v>
-      </c>
-      <c r="B19" t="s">
-        <v>192</v>
       </c>
       <c r="C19" t="s">
         <v>109</v>
@@ -2460,11 +2464,11 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
         <v>195</v>
-      </c>
-      <c r="B20" t="s">
-        <v>196</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -2503,7 +2507,7 @@
         <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P20" t="s">
         <v>193</v>
@@ -2537,7 +2541,7 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B21" t="s">
@@ -2614,11 +2618,11 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" t="s">
         <v>202</v>
-      </c>
-      <c r="B22" t="s">
-        <v>203</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
@@ -2691,7 +2695,7 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B23" t="s">
@@ -2768,11 +2772,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
         <v>82</v>
@@ -2811,7 +2815,7 @@
         <v>115</v>
       </c>
       <c r="O24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P24" t="s">
         <v>209</v>
@@ -2845,11 +2849,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" t="s">
         <v>211</v>
-      </c>
-      <c r="B25" t="s">
-        <v>212</v>
       </c>
       <c r="C25" t="s">
         <v>113</v>
